--- a/DATA_goal/Junction_Flooding_159.xlsx
+++ b/DATA_goal/Junction_Flooding_159.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41591.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.2</v>
+        <v>2.82</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.92</v>
+        <v>2.09</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.74</v>
+        <v>2.97</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.94</v>
+        <v>1.59</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.61</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>149.41</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>16.1</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.75</v>
+        <v>0.78</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.95</v>
+        <v>2.7</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41591.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>25.94</v>
+        <v>2.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.85</v>
+        <v>0.19</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.15</v>
+        <v>0.22</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.75</v>
+        <v>1.17</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41591.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.13</v>
+        <v>3.11</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.9</v>
+        <v>2.49</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>39.56</v>
+        <v>3.96</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.46</v>
+        <v>1.25</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>163.18</v>
+        <v>16.32</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.18</v>
+        <v>3.12</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.73</v>
+        <v>2.07</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>19.74</v>
+        <v>1.97</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.65</v>
+        <v>0.96</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.04</v>
+        <v>1.3</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>35.85</v>
+        <v>3.58</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41591.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.95</v>
+        <v>0.39</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41591.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.29</v>
+        <v>1.13</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>33.23</v>
+        <v>3.32</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>26.96</v>
+        <v>2.7</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>41.71</v>
+        <v>4.17</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>18.5</v>
+        <v>1.85</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12.05</v>
+        <v>1.2</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>174.62</v>
+        <v>17.46</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>33.24</v>
+        <v>3.32</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>22.27</v>
+        <v>2.23</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>20.78</v>
+        <v>2.08</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.75</v>
+        <v>0.97</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>37.56</v>
+        <v>3.76</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41591.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>21.73</v>
+        <v>2.17</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>47.45</v>
+        <v>4.74</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>38.8</v>
+        <v>3.88</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>65.09999999999999</v>
+        <v>6.51</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>26.41</v>
+        <v>2.64</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>17.41</v>
+        <v>1.74</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>19.03</v>
+        <v>1.9</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>24.32</v>
+        <v>2.43</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>252.49</v>
+        <v>25.25</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>47.72</v>
+        <v>4.77</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>32.13</v>
+        <v>3.21</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>16.85</v>
+        <v>1.69</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>32.04</v>
+        <v>3.2</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>12.31</v>
+        <v>1.23</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>59.27</v>
+        <v>5.93</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41591.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20.49</v>
+        <v>2.05</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.32</v>
+        <v>1.53</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>44.73</v>
+        <v>4.47</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>36.61</v>
+        <v>3.66</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>63.57</v>
+        <v>6.36</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>24.9</v>
+        <v>2.49</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>16.44</v>
+        <v>1.64</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>17.94</v>
+        <v>1.79</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.06</v>
+        <v>1.91</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>22.94</v>
+        <v>2.29</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>237.62</v>
+        <v>23.76</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>45.02</v>
+        <v>4.5</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>30.33</v>
+        <v>3.03</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>15.9</v>
+        <v>1.59</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>30.85</v>
+        <v>3.08</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>18.85</v>
+        <v>1.89</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>57.84</v>
+        <v>5.78</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41591.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T9" s="4" t="n">
         <v>3.4</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>33.96</v>
-      </c>
       <c r="U9" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>5.35</v>
+        <v>0.53</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41591.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J10" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>20.45</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>33.14</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>6.18</v>
-      </c>
       <c r="K10" s="4" t="n">
-        <v>9.16</v>
+        <v>0.92</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>129.99</v>
+        <v>13</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>25.11</v>
+        <v>2.51</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>29.81</v>
+        <v>2.98</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_159.xlsx
+++ b/DATA_goal/Junction_Flooding_159.xlsx
@@ -468,13 +468,13 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>44840.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.22</v>
+        <v>72.19</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44840.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.92</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.79</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.97</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.34</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.41</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.76</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.69</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>5.53</v>
+        <v>55.33</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.6</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.26</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.23</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.95</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44840.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.48</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.8</v>
+        <v>17.97</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.18</v>
+        <v>51.79</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.27</v>
+        <v>42.73</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.75</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.84</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.91</v>
+        <v>29.13</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.24</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.87</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.12</v>
+        <v>21.24</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.09</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.53</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.68</v>
+        <v>26.75</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.86</v>
+        <v>278.61</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.25</v>
+        <v>52.47</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.22</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.51</v>
+        <v>35.15</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.43</v>
+        <v>34.27</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.45</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.23</v>
+        <v>22.33</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.2</v>
+        <v>62.01</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.45</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44840.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.37</v>
+        <v>23.7</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.49</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.74</v>
+        <v>37.37</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.44</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.26</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.32</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.18</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>12.42</v>
+        <v>124.16</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.43</v>
+        <v>24.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.03</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.37</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.42</v>
+        <v>34.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_159.xlsx
+++ b/DATA_goal/Junction_Flooding_159.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,70 +655,70 @@
         <v>44840.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.38</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.17</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.19</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.04</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.38</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.97</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.77</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.17</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.37</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.16</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.81</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.85</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.45</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.31</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.642</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.51</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
         <v>6.25</v>
@@ -727,31 +727,31 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.98</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.07</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.07</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.32</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.06</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.19</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44840.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.92</v>
+        <v>3.918</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>10.79</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>8.882999999999999</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.97</v>
+        <v>3.969</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.34</v>
+        <v>15.339</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.41</v>
+        <v>6.407</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.1</v>
+        <v>3.098</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.76</v>
+        <v>4.763</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.97</v>
+        <v>4.965</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.79</v>
+        <v>4.789</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>1.33</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.8</v>
+        <v>3.795</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.69</v>
+        <v>5.693</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.47</v>
+        <v>3.467</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.3</v>
+        <v>0.301</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>55.33</v>
+        <v>55.334</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.6</v>
+        <v>11.599</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.65</v>
+        <v>3.654</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.26</v>
+        <v>7.263</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.71</v>
+        <v>4.711</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.79</v>
+        <v>7.786</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.3</v>
+        <v>3.298</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.7</v>
+        <v>3.703</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.41</v>
+        <v>4.408</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.23</v>
+        <v>5.227</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>13.95</v>
+        <v>13.947</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.59</v>
+        <v>2.589</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.39</v>
+        <v>4.393</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44840.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.48</v>
+        <v>23.483</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.97</v>
+        <v>17.969</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.652</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>51.79</v>
+        <v>51.795</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>42.73</v>
+        <v>42.733</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.75</v>
+        <v>18.755</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>68.34999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.13</v>
+        <v>29.132</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.24</v>
+        <v>13.237</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.87</v>
+        <v>19.872</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>21.24</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.09</v>
+        <v>22.094</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.04</v>
+        <v>6.037</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.53</v>
+        <v>18.527</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.75</v>
+        <v>26.752</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.59</v>
+        <v>15.593</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.279</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>278.61</v>
+        <v>278.606</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>52.47</v>
+        <v>52.474</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>17.22</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.15</v>
+        <v>35.148</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>19.09</v>
+        <v>19.093</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.46</v>
+        <v>2.464</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.27</v>
+        <v>34.269</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>15.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.98</v>
+        <v>13.978</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.45</v>
+        <v>16.451</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.33</v>
+        <v>22.333</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>62.01</v>
+        <v>62.007</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>10.15</v>
+        <v>10.153</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.45</v>
+        <v>21.451</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44840.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>41.16</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>68.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.22</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>267.24</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>50.42</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.92</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.71</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.36</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>62.15</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_159.xlsx
+++ b/DATA_goal/Junction_Flooding_159.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,100 +970,204 @@
         <v>10.63</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.223000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.243</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.7</v>
+        <v>23.695</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.49</v>
+        <v>19.493</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.57</v>
+        <v>8.574</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37.37</v>
+        <v>37.371</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.44</v>
+        <v>13.435</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.17</v>
+        <v>6.171</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.26</v>
+        <v>9.263</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>9.865</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.12</v>
+        <v>10.121</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>2.78</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.42</v>
+        <v>8.422000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.32</v>
+        <v>12.322</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.18</v>
+        <v>7.176</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.403</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>124.16</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.32</v>
+        <v>24.317</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.87</v>
+        <v>7.872</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.17</v>
+        <v>16.167</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.92</v>
+        <v>8.923999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.13</v>
+        <v>1.134</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>17.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.03</v>
+        <v>7.029</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.6</v>
+        <v>6.604</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.75</v>
+        <v>7.754</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.37</v>
+        <v>10.374</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>34.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.74</v>
+        <v>4.738</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.802</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44840.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>68.58</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>267.24</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>50.42</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>33.92</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>33.71</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>62.15</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>20.69</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_159.xlsx
+++ b/DATA_goal/Junction_Flooding_159.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,204 +970,100 @@
         <v>10.63</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.223000000000001</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.243</v>
+        <v>0.24</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.695</v>
+        <v>23.7</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.493</v>
+        <v>19.49</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.574</v>
+        <v>8.57</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37.371</v>
+        <v>37.37</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.435</v>
+        <v>13.44</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.171</v>
+        <v>6.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.263</v>
+        <v>9.26</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.865</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.121</v>
+        <v>10.12</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>2.78</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.422000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.322</v>
+        <v>12.32</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.176</v>
+        <v>7.18</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.403</v>
+        <v>0.4</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>124.16</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.317</v>
+        <v>24.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.872</v>
+        <v>7.87</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.167</v>
+        <v>16.17</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.923999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.134</v>
+        <v>1.13</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>17.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.029</v>
+        <v>7.03</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.604</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.754</v>
+        <v>7.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.374</v>
+        <v>10.37</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>34.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.738</v>
+        <v>4.74</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.802</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44840.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>41.16</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>68.58</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.22</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>267.24</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>50.42</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.92</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.71</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.36</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>62.15</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.69</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
   </sheetData>
